--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/22_Çanakkale_2024.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2024/22_Çanakkale_2024.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk 2024\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D0AB40C4-03ED-4967-9975-B864B8026444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D690D67-FEC3-48F5-AA47-DFF55B5A11AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{EA801FCC-4710-4034-BBDD-C884B3CA09CF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="648" xr2:uid="{806489DF-C514-48F7-8486-3CD63738ED92}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="135" r:id="rId1"/>
@@ -901,13 +901,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1" xr:uid="{2CF5BFD2-21FE-4193-80C4-CD87970961B3}"/>
-    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{3D5C1E97-1756-4C97-A429-76239150AE91}"/>
-    <cellStyle name="Normal 3" xfId="3" xr:uid="{AEC47B0F-119C-45C7-A467-9106D47C171D}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{EE4DB878-3622-42E6-AF49-AFCD5BEC5568}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{809BE7F1-E2B3-48FB-B723-21ED1AD87F4C}"/>
-    <cellStyle name="Not 2" xfId="6" xr:uid="{477FD4AD-9644-4FB0-A0EE-06AD034398E1}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{6027554B-49FE-4D5B-9276-048AC2A045EC}"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{42EBB91E-85B7-43E2-9026-2F4F6141FA77}"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{9D960467-21A6-4281-829D-CDFF1BAAE495}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{5734D4A6-7BFF-44FE-8983-7EC6D32D882A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="4" xr:uid="{8DB6B18D-9A98-4536-B67C-506C7DECAEDC}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="5" xr:uid="{9BD851BA-1E63-45E6-9CB0-CFECBFE7DDF6}"/>
+    <cellStyle name="Not 2" xfId="6" xr:uid="{E070D1A3-8938-42F3-9266-AC2ED5F9148F}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="7" xr:uid="{1B7C0522-927C-4AB8-8957-2E11EA7D8EAD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1277,7 +1277,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CE5C25A-082E-43DF-835B-5D988C2CB75E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A93D2F62-5651-4A34-8021-AB9DF681469D}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2558,7 +2558,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C4183A3-BC08-4AA5-9D0A-1A939A8299FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9951E91D-31B2-491A-9E3F-03C0D7DCB987}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -3833,7 +3833,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B1E515-F8CB-4C0C-B1B7-450F560DD076}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D863360E-FE48-4721-B4D9-9368FB0EB1CD}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5106,7 +5106,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294EC694-CADF-47C2-A89B-27C7EDAD287B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB72A725-7CAE-4361-BCB2-9F809BE2C3F2}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6375,7 +6375,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C3834F2-3A3B-4FBC-90BC-790FF989EE36}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72F49328-6FC7-4B70-8FCC-1EF6D88B8582}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7658,7 +7658,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12A8AC42-6D76-486B-B26B-75E42B7B9D75}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{416417AC-6612-4E00-9748-978FE66929BB}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -8941,7 +8941,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AE0EACF-69AC-42D4-9DE1-E59A4E6DA835}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA13A9F-30F3-404C-A368-E3E6B3C54ECF}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -10218,7 +10218,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CC95028-4DBC-4632-92E6-D4BBF7A39175}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCF67EA6-D461-4F24-A390-8619E983579C}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -11495,7 +11495,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EDC2F42-101D-4BDC-8367-AA56AE4CDB1C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE7DCB0D-D1F6-407F-8CD6-7231B1B8BEC5}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -12774,7 +12774,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B121E57-1619-4EB1-9EC7-51A4115E67A1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{661563D8-AC0B-4168-AA55-C57C6F4E9191}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14053,7 +14053,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83C8987F-99E4-4057-8CB5-3B2FC293BDC1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED3A8590-7C59-4A2F-99A9-7DC673B241D4}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15332,7 +15332,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F543315B-67FE-4D53-8712-FCAEC967C3C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE3B4D0F-DF62-474B-B1E9-10C1EE35E48B}">
   <dimension ref="B2:F104"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
